--- a/IESE_2014_CIMI_indicator_list.xlsx
+++ b/IESE_2014_CIMI_indicator_list.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irka\Data_Science\Netology\Diploma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Irka\Data_Science\Netology\Python\1_Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B307CA-B987-4D77-8A94-8D4D572D6FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1370AB-5803-460D-A3B7-E968363E87F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC8760F-5A5E-4A9D-BA97-49A82F9B6D74}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,22 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="260">
-  <si>
-    <t>NO.</t>
-  </si>
-  <si>
-    <t>INDICATOR</t>
-  </si>
-  <si>
-    <t>INITIALS</t>
-  </si>
-  <si>
-    <t>DESCRIPTION / UNIT OF MEASURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURCE </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="253">
   <si>
     <t>Population with secondary and high education</t>
   </si>
@@ -246,9 +234,6 @@
     <t>SLR</t>
   </si>
   <si>
-    <t xml:space="preserve">Governance </t>
-  </si>
-  <si>
     <t xml:space="preserve">World Bank </t>
   </si>
   <si>
@@ -441,9 +426,6 @@
     <t>Number of inhabitants</t>
   </si>
   <si>
-    <t>City/Country</t>
-  </si>
-  <si>
     <t>City Cluster</t>
   </si>
   <si>
@@ -459,9 +441,6 @@
     <t>CEE</t>
   </si>
   <si>
-    <t>DIMENSION / CLUSTER</t>
-  </si>
-  <si>
     <t>No. of Museums per 100,000 inhabitants</t>
   </si>
   <si>
@@ -597,9 +576,6 @@
     <t>PM2.5 measures the amount of airborne  particles whose diameter is less than  2.5μm. Annual average. </t>
   </si>
   <si>
-    <t>Environment </t>
-  </si>
-  <si>
     <t>World Health  Organization</t>
   </si>
   <si>
@@ -624,15 +600,9 @@
     <t>Traffic rate estimation is based on  time spent in traffic and generated  dissatisfaction. Estimates of consumption of CO2 and other traffic system  inefficiencies are also included.</t>
   </si>
   <si>
-    <t>Mobility and  Transportation</t>
-  </si>
-  <si>
     <t>Inefficiency index is an estimate of traffic  inefficiencies. High values represent high  inefficiencies in driving, such as long  travel times. </t>
   </si>
   <si>
-    <t>Mobility and  Transportation </t>
-  </si>
-  <si>
     <t>Number of road accidents per  100,000 population </t>
   </si>
   <si>
@@ -672,9 +642,6 @@
     <t>Number of international tourists that visit  the city. In thousands. </t>
   </si>
   <si>
-    <t>International  Outreach </t>
-  </si>
-  <si>
     <t>Number of airline passengers. In  thousands </t>
   </si>
   <si>
@@ -684,9 +651,6 @@
     <t>Ranking of cities according to the number  of photos taken in the city and uploaded  to Panoramio (online community to  share photographs). The first positions  correspond to cities with more pictures. </t>
   </si>
   <si>
-    <t>International  Outreach</t>
-  </si>
-  <si>
     <t>Sightsmap </t>
   </si>
   <si>
@@ -708,9 +672,6 @@
     <t>Innovation Index. Rating 0 = no innovation  to 60 = much innovation. </t>
   </si>
   <si>
-    <t>Technology </t>
-  </si>
-  <si>
     <t>Innovation Cities  Program </t>
   </si>
   <si>
@@ -789,9 +750,6 @@
     <t>Education spending per capita. Expressed  in Millions of USD 2013 prices. </t>
   </si>
   <si>
-    <t>Country Cluster  </t>
-  </si>
-  <si>
     <t>Consumer Expenditure on Health  Goods and Medical Services per  capita </t>
   </si>
   <si>
@@ -814,6 +772,30 @@
   </si>
   <si>
     <t>Housing expenditure per capita. Expressed  in Millions of USD 2013 prices</t>
+  </si>
+  <si>
+    <t>International Outreach</t>
+  </si>
+  <si>
+    <t>Mobility and Transportation</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>Description/Unit of measurement</t>
   </si>
 </sst>
 </file>
@@ -1169,35 +1151,35 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="4" max="4" width="93" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,19 +1207,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,19 +1227,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,19 +1247,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,19 +1267,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,19 +1287,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,19 +1307,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,19 +1327,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,19 +1347,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,19 +1367,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,19 +1387,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,19 +1407,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,19 +1427,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,19 +1447,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,19 +1467,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,19 +1487,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
         <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,19 +1507,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1545,19 +1527,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,19 +1547,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,19 +1567,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,19 +1587,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,19 +1607,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,19 +1627,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,19 +1647,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,19 +1667,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,19 +1687,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,19 +1707,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,19 +1727,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,19 +1747,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,19 +1767,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,19 +1787,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,19 +1807,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,19 +1827,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,19 +1847,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,19 +1867,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,19 +1887,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,19 +1907,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,19 +1927,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,19 +1947,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,19 +1967,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,19 +1987,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,19 +2007,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,19 +2027,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,19 +2047,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,19 +2067,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,19 +2087,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,19 +2107,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,19 +2127,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,19 +2147,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,19 +2167,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F51" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2205,19 +2187,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,19 +2207,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,19 +2227,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,19 +2247,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,19 +2267,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,19 +2287,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,19 +2307,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,19 +2327,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,19 +2347,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,19 +2367,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,19 +2387,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,19 +2407,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,19 +2427,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,19 +2447,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,19 +2467,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,19 +2487,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,19 +2507,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,19 +2527,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,19 +2547,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,19 +2567,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2605,19 +2587,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D72" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,22 +2607,23 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F73" xr:uid="{2FC857CA-73C2-47AD-A2A2-F42CACEF8D10}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
